--- a/data/trans_orig/P16B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB95E0B-EE97-470E-BB61-6A4E95B62725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FDC397D-1336-44DC-B1AB-2652DA57253E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEB1D25F-85B1-4DC5-BCBF-94A6005A9AB4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CD05875-818C-4AF9-8F66-EE1269570E22}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="212">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -106,13 +106,13 @@
     <t>89,4%</t>
   </si>
   <si>
-    <t>51,42%</t>
+    <t>51,63%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>66,89%</t>
+    <t>67,68%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -121,13 +121,13 @@
     <t>10,6%</t>
   </si>
   <si>
-    <t>48,58%</t>
+    <t>48,37%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>33,11%</t>
+    <t>32,32%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -139,13 +139,13 @@
     <t>93,76%</t>
   </si>
   <si>
-    <t>66,97%</t>
+    <t>68,8%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>87,05%</t>
+    <t>86,29%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -154,13 +154,13 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>33,03%</t>
+    <t>31,2%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>13,71%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -175,13 +175,13 @@
     <t>94,56%</t>
   </si>
   <si>
-    <t>72,12%</t>
+    <t>72,08%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>79,7%</t>
+    <t>78,46%</t>
   </si>
   <si>
     <t>10,39%</t>
@@ -193,13 +193,13 @@
     <t>5,44%</t>
   </si>
   <si>
-    <t>27,88%</t>
+    <t>27,92%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>20,3%</t>
+    <t>21,54%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -208,7 +208,7 @@
     <t>90,11%</t>
   </si>
   <si>
-    <t>70,18%</t>
+    <t>70,19%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -217,13 +217,13 @@
     <t>95,39%</t>
   </si>
   <si>
-    <t>83,84%</t>
+    <t>85,56%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>29,82%</t>
+    <t>29,81%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -232,271 +232,283 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>16,16%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>85,91%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>89,62%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>11,54%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>Porcentajes de antibióticos recetados en 2015 (Tasa respuesta: 2,07%)</t>
@@ -517,25 +529,25 @@
     <t>93,67%</t>
   </si>
   <si>
-    <t>71,63%</t>
+    <t>71,12%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>77,66%</t>
+    <t>81,97%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>28,37%</t>
+    <t>28,88%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>22,34%</t>
+    <t>18,03%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -565,103 +577,103 @@
     <t>87,91%</t>
   </si>
   <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>65,73%</t>
+    <t>68,35%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>34,27%</t>
+    <t>31,65%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5245D6B5-305F-404D-807B-F45D26AF6A07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDDD7E-5741-4ADC-90FA-09040820FE7D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1987,7 +1999,7 @@
         <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -1996,13 +2008,13 @@
         <v>127249</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2029,13 @@
         <v>2628</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2032,13 +2044,13 @@
         <v>3574</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2047,13 +2059,13 @@
         <v>6203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,7 +2121,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45A30AD-2C57-40A6-9C9F-46B4B979831E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BFB4EC-2931-4689-B855-98F1D8C9EB95}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2147,7 +2159,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2257,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -2287,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2311,7 +2323,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2341,7 +2353,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,7 +2439,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2442,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2481,7 +2493,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2496,7 +2508,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,10 +2576,10 @@
         <v>27957</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
@@ -2579,10 +2591,10 @@
         <v>41089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>12</v>
@@ -2594,13 +2606,13 @@
         <v>69046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2627,13 @@
         <v>3461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2630,13 +2642,13 @@
         <v>1866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2645,13 +2657,13 @@
         <v>5327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2731,13 @@
         <v>13300</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2734,10 +2746,10 @@
         <v>10315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>12</v>
@@ -2749,13 +2761,13 @@
         <v>23614</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2782,13 @@
         <v>7766</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2785,13 +2797,13 @@
         <v>976</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2800,13 +2812,13 @@
         <v>8742</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2886,13 @@
         <v>13694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -2889,10 +2901,10 @@
         <v>24908</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>12</v>
@@ -2904,13 +2916,13 @@
         <v>38602</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2937,13 @@
         <v>2824</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2940,13 +2952,13 @@
         <v>1916</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2955,13 +2967,13 @@
         <v>4740</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3041,13 @@
         <v>80888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -3044,13 +3056,13 @@
         <v>96559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -3059,13 +3071,13 @@
         <v>177448</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3092,13 @@
         <v>14051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3095,13 +3107,13 @@
         <v>4759</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -3110,13 +3122,13 @@
         <v>18809</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,7 +3184,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9485662-8FBD-4017-96C2-DBBF08200C20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAE7723-22C7-4F92-8A08-6E4BE4653079}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3210,7 +3222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3320,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -3335,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -3350,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -3374,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3389,7 +3401,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3404,7 +3416,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -3487,10 +3499,10 @@
         <v>13178</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>12</v>
@@ -3502,10 +3514,10 @@
         <v>20470</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>12</v>
@@ -3529,7 +3541,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3538,13 +3550,13 @@
         <v>890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3553,13 +3565,13 @@
         <v>890</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -3660,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -3699,7 +3711,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3714,7 +3726,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,7 +3812,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3815,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3854,7 +3866,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3869,7 +3881,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3949,13 @@
         <v>23902</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3952,10 +3964,10 @@
         <v>24139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>12</v>
@@ -3967,13 +3979,13 @@
         <v>48041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4000,13 @@
         <v>3286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4003,13 +4015,13 @@
         <v>2825</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4018,13 +4030,13 @@
         <v>6111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4104,13 @@
         <v>64832</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4107,13 +4119,13 @@
         <v>75164</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -4122,13 +4134,13 @@
         <v>139996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4155,13 @@
         <v>3286</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4158,13 +4170,13 @@
         <v>3715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4173,13 +4185,13 @@
         <v>7001</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4247,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FDC397D-1336-44DC-B1AB-2652DA57253E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC48C9F-F24F-4D10-8D98-0A13C09240C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CD05875-818C-4AF9-8F66-EE1269570E22}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4678F76B-9B58-4C91-8F18-D6A05ABCD6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -97,7 +97,7 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -106,13 +106,13 @@
     <t>89,4%</t>
   </si>
   <si>
-    <t>51,63%</t>
+    <t>52,96%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>67,68%</t>
+    <t>63,67%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -121,16 +121,16 @@
     <t>10,6%</t>
   </si>
   <si>
-    <t>48,37%</t>
+    <t>47,04%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -139,13 +139,13 @@
     <t>93,76%</t>
   </si>
   <si>
-    <t>68,8%</t>
+    <t>73,42%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>86,29%</t>
+    <t>84,9%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -154,52 +154,52 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>31,2%</t>
+    <t>26,58%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>49,05%</t>
+    <t>47,95%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>72,08%</t>
+    <t>73,94%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>78,46%</t>
+    <t>79,29%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>50,95%</t>
+    <t>52,05%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>27,92%</t>
+    <t>26,06%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>21,54%</t>
+    <t>20,71%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -208,7 +208,7 @@
     <t>90,11%</t>
   </si>
   <si>
-    <t>70,19%</t>
+    <t>68,94%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -217,13 +217,13 @@
     <t>95,39%</t>
   </si>
   <si>
-    <t>85,56%</t>
+    <t>83,76%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>29,81%</t>
+    <t>31,06%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -232,61 +232,61 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>14,44%</t>
+    <t>16,24%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -322,112 +322,112 @@
     <t>88,98%</t>
   </si>
   <si>
-    <t>63,02%</t>
+    <t>63,33%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>79,71%</t>
+    <t>79,38%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>36,98%</t>
+    <t>36,67%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>20,29%</t>
+    <t>20,62%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>63,13%</t>
   </si>
   <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>61,77%</t>
+    <t>62,28%</t>
   </si>
   <si>
     <t>72,98%</t>
   </si>
   <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>36,87%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>38,23%</t>
+    <t>37,72%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>78,56%</t>
+    <t>77,99%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>77,88%</t>
+    <t>76,64%</t>
   </si>
   <si>
     <t>95,79%</t>
@@ -436,16 +436,16 @@
     <t>17,09%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>21,44%</t>
+    <t>22,01%</t>
   </si>
   <si>
     <t>10,94%</t>
@@ -454,64 +454,64 @@
     <t>4,21%</t>
   </si>
   <si>
-    <t>22,12%</t>
+    <t>23,36%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>Porcentajes de antibióticos recetados en 2015 (Tasa respuesta: 2,07%)</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -529,25 +529,25 @@
     <t>93,67%</t>
   </si>
   <si>
-    <t>71,12%</t>
+    <t>73,55%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>81,97%</t>
+    <t>75,22%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>28,88%</t>
+    <t>26,45%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>18,03%</t>
+    <t>24,78%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -577,55 +577,55 @@
     <t>87,91%</t>
   </si>
   <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>68,35%</t>
+    <t>67,52%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>31,65%</t>
+    <t>32,48%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>86,63%</t>
+    <t>87,13%</t>
   </si>
   <si>
     <t>98,48%</t>
@@ -634,19 +634,19 @@
     <t>95,29%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>4,82%</t>
@@ -655,25 +655,25 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>13,37%</t>
+    <t>12,87%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEDDD7E-5741-4ADC-90FA-09040820FE7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1AFEC-72D8-41AD-8805-F6DE354E0656}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2142,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BFB4EC-2931-4689-B855-98F1D8C9EB95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5225BCAC-3ED3-4939-9E8D-76837F4684F3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3205,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAE7723-22C7-4F92-8A08-6E4BE4653079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21487F0-D27E-4247-9CE4-C761F30DDCE8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC48C9F-F24F-4D10-8D98-0A13C09240C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F2F13C-0A39-44C2-B9D6-9415EF620F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4678F76B-9B58-4C91-8F18-D6A05ABCD6CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9871B39-DDBA-478D-9968-F957374832D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="208">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -106,13 +106,13 @@
     <t>89,4%</t>
   </si>
   <si>
-    <t>52,96%</t>
+    <t>51,42%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>63,67%</t>
+    <t>66,89%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -121,13 +121,13 @@
     <t>10,6%</t>
   </si>
   <si>
-    <t>47,04%</t>
+    <t>48,58%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>36,33%</t>
+    <t>33,11%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -139,13 +139,13 @@
     <t>93,76%</t>
   </si>
   <si>
-    <t>73,42%</t>
+    <t>66,97%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>84,9%</t>
+    <t>87,05%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -154,13 +154,13 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>26,58%</t>
+    <t>33,03%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>15,1%</t>
+    <t>12,95%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -169,37 +169,37 @@
     <t>89,61%</t>
   </si>
   <si>
-    <t>47,95%</t>
+    <t>49,05%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>73,94%</t>
+    <t>72,12%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>79,29%</t>
+    <t>79,7%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>52,05%</t>
+    <t>50,95%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>26,06%</t>
+    <t>27,88%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>20,71%</t>
+    <t>20,3%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -208,7 +208,7 @@
     <t>90,11%</t>
   </si>
   <si>
-    <t>68,94%</t>
+    <t>70,18%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -217,13 +217,13 @@
     <t>95,39%</t>
   </si>
   <si>
-    <t>83,76%</t>
+    <t>83,84%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>31,06%</t>
+    <t>29,82%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -232,61 +232,55 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>16,24%</t>
+    <t>16,16%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>85,91%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>14,09%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -322,193 +316,187 @@
     <t>88,98%</t>
   </si>
   <si>
-    <t>63,33%</t>
+    <t>63,9%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>79,38%</t>
+    <t>77,59%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>36,67%</t>
+    <t>36,1%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>20,62%</t>
+    <t>22,41%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>63,13%</t>
   </si>
   <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>62,28%</t>
+    <t>52,3%</t>
   </si>
   <si>
     <t>72,98%</t>
   </si>
   <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>36,87%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>37,72%</t>
+    <t>47,7%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>57,89%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>77,99%</t>
+    <t>77,12%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>42,11%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>22,01%</t>
+    <t>22,88%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
@@ -529,25 +517,25 @@
     <t>93,67%</t>
   </si>
   <si>
-    <t>73,55%</t>
+    <t>71,63%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>75,22%</t>
+    <t>77,66%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>26,45%</t>
+    <t>28,37%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>24,78%</t>
+    <t>22,34%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -577,7 +565,7 @@
     <t>87,91%</t>
   </si>
   <si>
-    <t>68,25%</t>
+    <t>68,6%</t>
   </si>
   <si>
     <t>96,16%</t>
@@ -586,16 +574,16 @@
     <t>89,52%</t>
   </si>
   <si>
-    <t>67,52%</t>
+    <t>65,73%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>12,09%</t>
@@ -604,46 +592,46 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>31,75%</t>
+    <t>31,4%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>32,48%</t>
+    <t>34,27%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>98,88%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>90,31%</t>
+    <t>89,94%</t>
   </si>
   <si>
     <t>98,05%</t>
@@ -652,28 +640,28 @@
     <t>4,82%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
     <t>4,76%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>9,69%</t>
+    <t>10,06%</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1AFEC-72D8-41AD-8805-F6DE354E0656}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53933AC4-13D7-4D3E-BEEA-C550173C3B60}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1999,7 +1987,7 @@
         <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -2008,13 +1996,13 @@
         <v>127249</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2017,13 @@
         <v>2628</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2044,13 +2032,13 @@
         <v>3574</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2059,13 +2047,13 @@
         <v>6203</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,7 +2109,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5225BCAC-3ED3-4939-9E8D-76837F4684F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58F344F-1A96-49FA-96C4-4D1AE3A2FC57}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2159,7 +2147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2269,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -2299,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2323,7 +2311,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2353,7 +2341,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -2454,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2493,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2508,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,10 +2564,10 @@
         <v>27957</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
@@ -2591,10 +2579,10 @@
         <v>41089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>12</v>
@@ -2606,13 +2594,13 @@
         <v>69046</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2615,13 @@
         <v>3461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2642,13 +2630,13 @@
         <v>1866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2657,13 +2645,13 @@
         <v>5327</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2719,13 @@
         <v>13300</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2746,10 +2734,10 @@
         <v>10315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>12</v>
@@ -2761,13 +2749,13 @@
         <v>23614</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2770,13 @@
         <v>7766</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2797,13 +2785,13 @@
         <v>976</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2812,13 +2800,13 @@
         <v>8742</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2874,13 @@
         <v>13694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -2901,10 +2889,10 @@
         <v>24908</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>12</v>
@@ -2916,13 +2904,13 @@
         <v>38602</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2925,13 @@
         <v>2824</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2952,13 +2940,13 @@
         <v>1916</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2967,13 +2955,13 @@
         <v>4740</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3029,13 @@
         <v>80888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -3056,13 +3044,13 @@
         <v>96559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -3071,13 +3059,13 @@
         <v>177448</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3080,13 @@
         <v>14051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3107,13 +3095,13 @@
         <v>4759</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -3122,13 +3110,13 @@
         <v>18809</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,7 +3172,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21487F0-D27E-4247-9CE4-C761F30DDCE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7670CE36-6B2C-4BC3-8A69-F7F9DE93280F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3222,7 +3210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3332,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -3347,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -3362,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -3386,7 +3374,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3401,7 +3389,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3416,7 +3404,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -3499,10 +3487,10 @@
         <v>13178</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>12</v>
@@ -3514,10 +3502,10 @@
         <v>20470</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>12</v>
@@ -3541,7 +3529,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3550,13 +3538,13 @@
         <v>890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3565,13 +3553,13 @@
         <v>890</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,7 +3645,7 @@
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -3672,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -3711,7 +3699,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3726,7 +3714,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3827,7 +3815,7 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3866,7 +3854,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3881,7 +3869,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3937,13 @@
         <v>23902</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -3964,10 +3952,10 @@
         <v>24139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>12</v>
@@ -3979,13 +3967,13 @@
         <v>48041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +3988,13 @@
         <v>3286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4015,13 +4003,13 @@
         <v>2825</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4030,13 +4018,13 @@
         <v>6111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4092,13 @@
         <v>64832</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -4119,13 +4107,13 @@
         <v>75164</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -4134,13 +4122,13 @@
         <v>139996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4143,13 @@
         <v>3286</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4170,13 +4158,13 @@
         <v>3715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4185,13 +4173,13 @@
         <v>7001</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4235,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F2F13C-0A39-44C2-B9D6-9415EF620F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6C6A07-1A71-47C1-BE32-88A5BE82249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9871B39-DDBA-478D-9968-F957374832D6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{95920DEE-DC2E-4697-A11F-AC8FEC78F140}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="194">
   <si>
     <t>Porcentajes de antibióticos recetados en 2007 (Tasa respuesta: 2,04%)</t>
   </si>
@@ -67,24 +67,33 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>43,07%</t>
+    <t>79,25%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -94,40 +103,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -163,7 +151,7 @@
     <t>12,95%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>89,61%</t>
@@ -172,9 +160,6 @@
     <t>49,05%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
     <t>72,12%</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>50,95%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
     <t>27,88%</t>
   </si>
   <si>
@@ -289,28 +271,10 @@
     <t>Porcentajes de antibióticos recetados en 2012 (Tasa respuesta: 2,69%)</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>88,98%</t>
@@ -502,40 +466,34 @@
     <t>Porcentajes de antibióticos recetados en 2016 (Tasa respuesta: 2,07%)</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>91,36%</t>
@@ -1073,8 +1031,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53933AC4-13D7-4D3E-BEEA-C550173C3B60}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60EFD4E-412A-4474-A326-0FFF48A0AB06}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1191,96 +1149,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7611</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10501</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>18113</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1710</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1710</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1289,106 +1251,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7611</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>1710</v>
+        <v>11544</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N6" s="7">
-        <v>1710</v>
+        <v>19156</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>7611</v>
+        <v>24929</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>8791</v>
+        <v>17306</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N7" s="7">
-        <v>16403</v>
+        <v>42235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1397,43 +1361,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1043</v>
+        <v>1151</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1043</v>
+        <v>1151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,153 +1406,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>7611</v>
+        <v>24929</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>9834</v>
+        <v>18457</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N9" s="7">
-        <v>17446</v>
+        <v>43386</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>24929</v>
+        <v>8181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>17306</v>
+        <v>23995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>42235</v>
+        <v>32175</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1151</v>
+        <v>1381</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1151</v>
+        <v>2329</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,153 +1561,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>24929</v>
+        <v>9129</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>18457</v>
+        <v>25376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N12" s="7">
-        <v>43386</v>
+        <v>34504</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>8181</v>
+        <v>15313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>23995</v>
+        <v>19413</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>32175</v>
+        <v>34726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>948</v>
+        <v>1680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1381</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>2329</v>
+        <v>1680</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,153 +1716,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D15" s="7">
-        <v>9129</v>
+        <v>16993</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I15" s="7">
-        <v>25376</v>
+        <v>19413</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N15" s="7">
-        <v>34504</v>
+        <v>36406</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>15313</v>
+        <v>56035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>19413</v>
+        <v>71216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="N16" s="7">
-        <v>34726</v>
+        <v>127249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>1680</v>
+        <v>2628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>3574</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>1680</v>
+        <v>6203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,217 +1871,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D18" s="7">
-        <v>16993</v>
+        <v>58663</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="I18" s="7">
-        <v>19413</v>
+        <v>74790</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="N18" s="7">
-        <v>36406</v>
+        <v>133452</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>56</v>
-      </c>
-      <c r="D19" s="7">
-        <v>56035</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="7">
-        <v>71</v>
-      </c>
-      <c r="I19" s="7">
-        <v>71216</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="7">
-        <v>127</v>
-      </c>
-      <c r="N19" s="7">
-        <v>127249</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2628</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3574</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6203</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>59</v>
-      </c>
-      <c r="D21" s="7">
-        <v>58663</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7">
-        <v>74</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74790</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>133</v>
-      </c>
-      <c r="N21" s="7">
-        <v>133452</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2130,8 +1938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58F344F-1A96-49FA-96C4-4D1AE3A2FC57}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DABAF6-E226-4977-935B-3B35C98F42CF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2147,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2248,55 +2056,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>2733</v>
+        <v>25937</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>1979</v>
+        <v>20248</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>4712</v>
+        <v>46185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2305,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2320,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2335,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,153 +2158,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
-        <v>2733</v>
+        <v>25937</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>1979</v>
+        <v>20248</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N6" s="7">
-        <v>4712</v>
+        <v>46185</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>23204</v>
+        <v>27957</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>18269</v>
+        <v>41089</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="N7" s="7">
-        <v>41473</v>
+        <v>69046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>3461</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1866</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>89</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>5327</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,153 +2313,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7">
-        <v>23204</v>
+        <v>31418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
-        <v>18269</v>
+        <v>42955</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="N9" s="7">
-        <v>41473</v>
+        <v>74373</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>27957</v>
+        <v>13300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>41089</v>
+        <v>10315</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>69046</v>
+        <v>23614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>3461</v>
+        <v>7766</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1866</v>
+        <v>976</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>5327</v>
+        <v>8742</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,153 +2468,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>31418</v>
+        <v>21066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>42955</v>
+        <v>11291</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N12" s="7">
-        <v>74373</v>
+        <v>32356</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13694</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="7">
-        <v>13300</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>10315</v>
+        <v>24908</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>23614</v>
+        <v>38602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>7766</v>
+        <v>2824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>976</v>
+        <v>1916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>8742</v>
+        <v>4740</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,153 +2623,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>21066</v>
+        <v>16518</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7">
-        <v>11291</v>
+        <v>26824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N15" s="7">
-        <v>32356</v>
+        <v>43342</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>13694</v>
+        <v>80888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="H16" s="7">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I16" s="7">
-        <v>24908</v>
+        <v>96559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="N16" s="7">
-        <v>38602</v>
+        <v>177448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>2824</v>
+        <v>14051</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>1916</v>
+        <v>4759</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>4740</v>
+        <v>18809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,217 +2778,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7">
-        <v>16518</v>
+        <v>94939</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I18" s="7">
-        <v>26824</v>
+        <v>101318</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="N18" s="7">
-        <v>43342</v>
+        <v>196257</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7">
-        <v>80888</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="7">
-        <v>89</v>
-      </c>
-      <c r="I19" s="7">
-        <v>96559</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" s="7">
-        <v>158</v>
-      </c>
-      <c r="N19" s="7">
-        <v>177448</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7">
-        <v>14051</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>4759</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M20" s="7">
-        <v>17</v>
-      </c>
-      <c r="N20" s="7">
-        <v>18809</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>82</v>
-      </c>
-      <c r="D21" s="7">
-        <v>94939</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7">
-        <v>93</v>
-      </c>
-      <c r="I21" s="7">
-        <v>101318</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>175</v>
-      </c>
-      <c r="N21" s="7">
-        <v>196257</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>81</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3193,8 +2845,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7670CE36-6B2C-4BC3-8A69-F7F9DE93280F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E978E-6D55-4757-8EF7-6F49BE6569D6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3210,7 +2862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3311,55 +2963,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>4935</v>
+        <v>12227</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>14</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
       <c r="I4" s="7">
-        <v>962</v>
+        <v>14140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>5897</v>
+        <v>26366</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3368,43 +3020,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,108 +3065,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>4935</v>
+        <v>12227</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>962</v>
+        <v>15030</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N6" s="7">
-        <v>5897</v>
+        <v>27256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>7292</v>
+        <v>19715</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>13178</v>
+        <v>21929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>20470</v>
+        <v>41644</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3523,43 +3175,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,108 +3220,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>7292</v>
+        <v>19715</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>14068</v>
+        <v>21929</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N9" s="7">
-        <v>21360</v>
+        <v>41644</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>19715</v>
+        <v>8987</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>21929</v>
+        <v>14956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>41644</v>
+        <v>23944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3678,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3693,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3708,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,153 +3375,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>19715</v>
+        <v>8987</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>21929</v>
+        <v>14956</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N12" s="7">
-        <v>41644</v>
+        <v>23944</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>8987</v>
+        <v>23902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>14956</v>
+        <v>24139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>23944</v>
+        <v>48041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>3286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2825</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>6111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,108 +3530,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>8987</v>
+        <v>27188</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I15" s="7">
-        <v>14956</v>
+        <v>26964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N15" s="7">
-        <v>23944</v>
+        <v>54152</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>23902</v>
+        <v>64832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>24139</v>
+        <v>75164</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="N16" s="7">
-        <v>48041</v>
+        <v>139996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -3988,43 +3640,43 @@
         <v>3286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>2825</v>
+        <v>3715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>6111</v>
+        <v>7001</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,217 +3685,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7">
-        <v>27188</v>
+        <v>68118</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I18" s="7">
-        <v>26964</v>
+        <v>78879</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="N18" s="7">
-        <v>54152</v>
+        <v>146997</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7">
-        <v>64832</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="7">
-        <v>69</v>
-      </c>
-      <c r="I19" s="7">
-        <v>75164</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M19" s="7">
-        <v>130</v>
-      </c>
-      <c r="N19" s="7">
-        <v>139996</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3286</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3715</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>7001</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>64</v>
-      </c>
-      <c r="D21" s="7">
-        <v>68118</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="7">
-        <v>72</v>
-      </c>
-      <c r="I21" s="7">
-        <v>78879</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>136</v>
-      </c>
-      <c r="N21" s="7">
-        <v>146997</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>81</v>
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
